--- a/angular/assignment/angular-8-june-2022.xlsx
+++ b/angular/assignment/angular-8-june-2022.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2022\mean_training_May-2022\angular\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA4559C-1C83-4E21-AFD2-2F2B44CBF069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B3573E-619C-42CF-BC24-06D1AB62E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HelpDesk" sheetId="1" r:id="rId1"/>
+    <sheet name="HospitalManagement" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Help Desk Management</t>
   </si>
@@ -88,13 +89,76 @@
   </si>
   <si>
     <t>Validations</t>
+  </si>
+  <si>
+    <t>Patient Master</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>&lt;drop down&gt;</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Emergency Contact Number</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>&lt;male&gt;&lt;Female&gt; radio button</t>
+  </si>
+  <si>
+    <t>Known Issues</t>
+  </si>
+  <si>
+    <t>&lt;text area&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Submit&gt;</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>On submit</t>
+  </si>
+  <si>
+    <t>Create patient id starting with zero</t>
+  </si>
+  <si>
+    <t>&lt;Delete&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Update&gt;</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>raghu@gmail.com</t>
+  </si>
+  <si>
+    <t>1094,Jakkuru</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +190,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,12 +220,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -437,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -567,4 +640,183 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8943606-F390-48B2-9222-28EF7EF5EF28}">
+  <dimension ref="D2:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" customWidth="1"/>
+    <col min="11" max="11" width="24.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>93939</v>
+      </c>
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19">
+        <v>9388383</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F19" r:id="rId1" xr:uid="{FB273F06-5635-4CA6-B21F-352801BDAA62}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/angular/assignment/angular-8-june-2022.xlsx
+++ b/angular/assignment/angular-8-june-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\incarnus\2022\mean_training_May-2022\angular\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B3573E-619C-42CF-BC24-06D1AB62E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0D9E89-9207-457D-A76E-13D829263000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Help Desk Management</t>
   </si>
@@ -152,6 +152,54 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Bejgaluru/Mysore/Hyderabad</t>
+  </si>
+  <si>
+    <t>India/China</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>minlength and maxlength 10</t>
+  </si>
+  <si>
+    <t>Ramya</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>ramya@gmail.com</t>
+  </si>
+  <si>
+    <t>10,Jayanagar</t>
+  </si>
+  <si>
+    <t>Reponsive</t>
+  </si>
+  <si>
+    <t>After screen size 800 .. Label should occupy 40 % width and text boxes should occupy 60 %</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>occupies 100 % width</t>
+  </si>
+  <si>
+    <t>Div= container</t>
+  </si>
+  <si>
+    <t>rowdiv</t>
+  </si>
+  <si>
+    <t>div</t>
   </si>
 </sst>
 </file>
@@ -207,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,18 +263,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -644,107 +709,161 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8943606-F390-48B2-9222-28EF7EF5EF28}">
-  <dimension ref="D2:M19"/>
+  <dimension ref="C1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.81640625" customWidth="1"/>
     <col min="8" max="8" width="17.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="4:11" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
+    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
+    <row r="5" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E6" t="s">
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F13" t="s">
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
       <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
@@ -752,7 +871,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D18" s="5" t="s">
         <v>1</v>
       </c>
@@ -780,43 +904,92 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <v>93939</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="6">
         <v>9388383</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="6" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3838</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="6">
+        <v>9388386</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F19" r:id="rId1" xr:uid="{FB273F06-5635-4CA6-B21F-352801BDAA62}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{575662DD-A7AC-48BD-8141-65932BE269A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>